--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -49,13 +49,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -115,7 +116,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -125,6 +126,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -148,468 +153,471 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.54"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>122.544850617855</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="C2" s="0" t="n">
+        <v>122.54</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>735.928994860591</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="C3" s="0" t="n">
+        <v>735.93</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>393.620693220102</v>
-      </c>
-      <c r="D4" s="0" t="s">
+      <c r="B4" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>393.62</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="n">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>597.848942348572</v>
-      </c>
-      <c r="D5" s="0" t="s">
+      <c r="C5" s="0" t="n">
+        <v>597.85</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="n">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>330.344890734183</v>
-      </c>
-      <c r="D6" s="0" t="s">
+      <c r="C6" s="0" t="n">
+        <v>330.34</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="n">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="n">
         <v>233</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>728.978062708622</v>
+      <c r="C7" s="0" t="n">
+        <v>728.98</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="2" t="n">
         <v>245</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>582.524231186806</v>
+      <c r="C8" s="0" t="n">
+        <v>582.52</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>149.367770448282</v>
+      <c r="B9" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>149.37</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>192.748849458019</v>
+      <c r="C10" s="0" t="n">
+        <v>192.75</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="2" t="n">
         <v>593</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>36.0330045723588</v>
+      <c r="C11" s="0" t="n">
+        <v>36.03</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="2" t="n">
         <v>175</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>52.6090031024048</v>
+      <c r="C12" s="0" t="n">
+        <v>52.61</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>668.652754363919</v>
+      <c r="C13" s="0" t="n">
+        <v>668.65</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="2" t="n">
         <v>566</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>708.014906241424</v>
+      <c r="C14" s="0" t="n">
+        <v>708.01</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>913.56187532729</v>
+      <c r="C15" s="0" t="n">
+        <v>913.56</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="2" t="n">
         <v>428</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>515.689612987021</v>
+      <c r="C16" s="0" t="n">
+        <v>515.69</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>91.205470305678</v>
+      <c r="C17" s="0" t="n">
+        <v>91.21</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="2" t="n">
         <v>586</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>726.284861483594</v>
+      <c r="C18" s="0" t="n">
+        <v>726.28</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="2" t="n">
         <v>605</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>635.576416152598</v>
+      <c r="C19" s="0" t="n">
+        <v>635.58</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="2" t="n">
         <v>151</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>57.4085720517852</v>
+      <c r="C20" s="0" t="n">
+        <v>57.41</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>386.335747976225</v>
+      <c r="C21" s="0" t="n">
+        <v>386.34</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="2" t="n">
         <v>691</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>586.189785515605</v>
+      <c r="C22" s="0" t="n">
+        <v>586.19</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="2" t="n">
         <v>131</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>261.912900585933</v>
+      <c r="C23" s="0" t="n">
+        <v>261.91</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="2" t="n">
         <v>963</v>
       </c>
-      <c r="C24" s="1" t="n">
-        <v>749.729336393985</v>
+      <c r="C24" s="0" t="n">
+        <v>749.73</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="2" t="n">
         <v>255</v>
       </c>
-      <c r="C25" s="1" t="n">
-        <v>593.147556962639</v>
+      <c r="C25" s="0" t="n">
+        <v>593.15</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="2" t="n">
         <v>557</v>
       </c>
-      <c r="C26" s="1" t="n">
-        <v>224.326955041138</v>
+      <c r="C26" s="0" t="n">
+        <v>224.33</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C27" s="1" t="n">
-        <v>312.90814878746</v>
+      <c r="C27" s="0" t="n">
+        <v>312.91</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="C28" s="1" t="n">
-        <v>102.057660282154</v>
+      <c r="C28" s="0" t="n">
+        <v>102.06</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="2" t="n">
         <v>294</v>
       </c>
-      <c r="C29" s="1" t="n">
-        <v>367.124398679612</v>
+      <c r="C29" s="0" t="n">
+        <v>367.12</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>97.3256770232755</v>
+      <c r="B30" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>97.33</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="2" t="n">
         <v>208</v>
       </c>
-      <c r="C31" s="1" t="n">
-        <v>720.416178568319</v>
+      <c r="C31" s="0" t="n">
+        <v>720.42</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="2" t="n">
         <v>163</v>
       </c>
-      <c r="C32" s="1" t="n">
-        <v>496.913062861317</v>
+      <c r="C32" s="0" t="n">
+        <v>496.91</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="2" t="n">
         <v>784</v>
       </c>
-      <c r="C33" s="1" t="n">
-        <v>388.930680241396</v>
+      <c r="C33" s="0" t="n">
+        <v>388.93</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>4</v>
